--- a/The research project/The covid dummy.xlsx
+++ b/The research project/The covid dummy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tie/Documents/GitHub/ECON-493-forcasting-economy/The research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A29F1F-0BE9-2D4A-AD2D-FB01AAB43550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68046289-D222-7245-8515-FB06B13D950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2160" windowWidth="28240" windowHeight="17440" xr2:uid="{C79D7757-3DC5-E14A-9C64-D677BD5D9729}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmm\ yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -107,8 +107,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{9F2F12FE-F6E5-AC4C-87B7-A58496ED30E3}"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8478613-F9C0-7F47-9374-99691AED5A76}">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="177" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189:B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/The research project/The covid dummy.xlsx
+++ b/The research project/The covid dummy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tie/Documents/GitHub/ECON-493-forcasting-economy/The research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68046289-D222-7245-8515-FB06B13D950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F947F-0EAF-E34D-A9CD-92E0958DEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2160" windowWidth="28240" windowHeight="17440" xr2:uid="{C79D7757-3DC5-E14A-9C64-D677BD5D9729}"/>
   </bookViews>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8478613-F9C0-7F47-9374-99691AED5A76}">
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189:B195"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
